--- a/BioFoundries.xlsx
+++ b/BioFoundries.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7415C5-A73B-471B-AE0E-E93914CFBFCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDE80F-A0D7-4766-B397-C2422A5A9993}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
   <si>
     <t>City</t>
   </si>
@@ -272,10 +272,37 @@
     <t>TIB</t>
   </si>
   <si>
-    <t>Buw</t>
-  </si>
-  <si>
     <t>GER</t>
+  </si>
+  <si>
+    <t>BUW</t>
+  </si>
+  <si>
+    <t>Biofactorial</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>BFC</t>
+  </si>
+  <si>
+    <t>Living Measurment Systems Foundry</t>
+  </si>
+  <si>
+    <t>Gaithersburg, MD</t>
+  </si>
+  <si>
+    <t>LMS</t>
+  </si>
+  <si>
+    <t>Cyberbiofoundry</t>
+  </si>
+  <si>
+    <t>Fort Collins, CO</t>
+  </si>
+  <si>
+    <t>CBF</t>
   </si>
 </sst>
 </file>
@@ -661,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24">
         <v>50.5</v>
@@ -1338,7 +1365,7 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26">
         <v>19</v>
@@ -1351,6 +1378,84 @@
       </c>
       <c r="H26">
         <v>-122.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>49.2</v>
+      </c>
+      <c r="H27">
+        <v>-123.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>-77.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>-105.5</v>
       </c>
     </row>
   </sheetData>

--- a/BioFoundries.xlsx
+++ b/BioFoundries.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDE80F-A0D7-4766-B397-C2422A5A9993}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5CCBBF-2C55-4197-82AC-2AB67261A1DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-2150" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>City</t>
   </si>
@@ -303,15 +303,43 @@
   </si>
   <si>
     <t>CBF</t>
+  </si>
+  <si>
+    <t>VTT Technical Research Centre of Finland Ltd</t>
+  </si>
+  <si>
+    <t>Espoo</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>SynBio Foundry SJTU, Shanghai Jiao Tong University</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>SJT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -338,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -350,6 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1458,6 +1487,58 @@
         <v>-105.5</v>
       </c>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30">
+        <v>60.1</v>
+      </c>
+      <c r="H30">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31">
+        <v>31.1</v>
+      </c>
+      <c r="H31">
+        <v>121.3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H16">
     <sortCondition ref="A2"/>
